--- a/data/pca/factorExposure/factorExposure_2010-06-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-08.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.0126477468835536</v>
+        <v>-0.01680647047285287</v>
       </c>
       <c r="C2">
-        <v>-0.004074761652393533</v>
+        <v>0.000871514424372371</v>
       </c>
       <c r="D2">
-        <v>-0.01276328366726013</v>
+        <v>0.008673836559058382</v>
       </c>
       <c r="E2">
-        <v>0.03518425587157071</v>
+        <v>0.002313211913454742</v>
       </c>
       <c r="F2">
-        <v>0.01136997465948801</v>
+        <v>-0.01299199842552507</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1247200452367575</v>
+        <v>-0.09516896758179917</v>
       </c>
       <c r="C4">
-        <v>-0.100904610211944</v>
+        <v>0.01762768327543536</v>
       </c>
       <c r="D4">
-        <v>0.01054288435097497</v>
+        <v>0.08074597605646987</v>
       </c>
       <c r="E4">
-        <v>-0.06348417038630291</v>
+        <v>-0.0262105872356305</v>
       </c>
       <c r="F4">
-        <v>0.1768041677009468</v>
+        <v>0.03611610731643164</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1331807461440775</v>
+        <v>-0.1521043581114722</v>
       </c>
       <c r="C6">
-        <v>-0.0585573877086011</v>
+        <v>0.02450330805602451</v>
       </c>
       <c r="D6">
-        <v>0.007918554631770639</v>
+        <v>-0.02358117277284136</v>
       </c>
       <c r="E6">
-        <v>0.006860362252865955</v>
+        <v>-0.01515005968125296</v>
       </c>
       <c r="F6">
-        <v>0.02709970024459225</v>
+        <v>0.03885526323561746</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.06839342575118501</v>
+        <v>-0.06176935292947189</v>
       </c>
       <c r="C7">
-        <v>-0.07334943107477254</v>
+        <v>6.671354379515072e-05</v>
       </c>
       <c r="D7">
-        <v>-0.01262528618543874</v>
+        <v>0.05153031063676343</v>
       </c>
       <c r="E7">
-        <v>-0.008654289954942829</v>
+        <v>-0.01276342422639689</v>
       </c>
       <c r="F7">
-        <v>0.01767087662930718</v>
+        <v>0.05650391519627423</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.04711529981159643</v>
+        <v>-0.05953422031791485</v>
       </c>
       <c r="C8">
-        <v>-0.01395911776630484</v>
+        <v>-0.01257488146591714</v>
       </c>
       <c r="D8">
-        <v>0.005336645022741186</v>
+        <v>0.02750370911442436</v>
       </c>
       <c r="E8">
-        <v>-0.05489339346158546</v>
+        <v>-0.01230392582749873</v>
       </c>
       <c r="F8">
-        <v>0.1135047352187974</v>
+        <v>-0.02497052715256107</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0874071611301363</v>
+        <v>-0.07249270587320539</v>
       </c>
       <c r="C9">
-        <v>-0.07454104554659922</v>
+        <v>0.01379667536323814</v>
       </c>
       <c r="D9">
-        <v>0.02637565279089588</v>
+        <v>0.08062682708956509</v>
       </c>
       <c r="E9">
-        <v>-0.05338621052681959</v>
+        <v>-0.02081317560933996</v>
       </c>
       <c r="F9">
-        <v>0.149314362944389</v>
+        <v>0.05762449368090167</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.1309833308156858</v>
+        <v>-0.0920129962113448</v>
       </c>
       <c r="C10">
-        <v>0.1708314099590961</v>
+        <v>0.01473469281633794</v>
       </c>
       <c r="D10">
-        <v>-0.01426838958335067</v>
+        <v>-0.1732033305582555</v>
       </c>
       <c r="E10">
-        <v>0.04659153473479582</v>
+        <v>0.03526103405227567</v>
       </c>
       <c r="F10">
-        <v>-0.03555602264875823</v>
+        <v>-0.05158014166037496</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06662572199528177</v>
+        <v>-0.08830502815111556</v>
       </c>
       <c r="C11">
-        <v>-0.06657117956128156</v>
+        <v>0.01295918289553996</v>
       </c>
       <c r="D11">
-        <v>0.04258101260155939</v>
+        <v>0.1111250429565543</v>
       </c>
       <c r="E11">
-        <v>-0.02224842883398489</v>
+        <v>-0.04135558013200325</v>
       </c>
       <c r="F11">
-        <v>0.1020016255040301</v>
+        <v>0.02519879732285755</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.06734445551550566</v>
+        <v>-0.09336917037074034</v>
       </c>
       <c r="C12">
-        <v>-0.07150448419267529</v>
+        <v>0.01087716630200963</v>
       </c>
       <c r="D12">
-        <v>0.05436320279000207</v>
+        <v>0.1182274672990493</v>
       </c>
       <c r="E12">
-        <v>-0.05859807149267434</v>
+        <v>-0.03938417468626894</v>
       </c>
       <c r="F12">
-        <v>0.08834087336915185</v>
+        <v>0.02768490243306158</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.03784201548706556</v>
+        <v>-0.0441066712793408</v>
       </c>
       <c r="C13">
-        <v>-0.03964468800577364</v>
+        <v>0.004672627581984303</v>
       </c>
       <c r="D13">
-        <v>-0.02089261522194337</v>
+        <v>0.04349424551354895</v>
       </c>
       <c r="E13">
-        <v>-0.02687159344203358</v>
+        <v>0.01514189258888341</v>
       </c>
       <c r="F13">
-        <v>0.03268386678939055</v>
+        <v>0.01882052453285733</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.03532027917731245</v>
+        <v>-0.02202472693748416</v>
       </c>
       <c r="C14">
-        <v>-0.03510493340482982</v>
+        <v>0.01494367202118178</v>
       </c>
       <c r="D14">
-        <v>0.02048382209108379</v>
+        <v>0.03193458549645591</v>
       </c>
       <c r="E14">
-        <v>-0.03150719540768242</v>
+        <v>-0.01620363525572616</v>
       </c>
       <c r="F14">
-        <v>0.05546654085657936</v>
+        <v>0.02170550966815802</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.01992642358908325</v>
+        <v>-0.03268229181097836</v>
       </c>
       <c r="C15">
-        <v>-0.01801295745203467</v>
+        <v>0.005846876810326474</v>
       </c>
       <c r="D15">
-        <v>-0.06863445347911681</v>
+        <v>0.04336606329262604</v>
       </c>
       <c r="E15">
-        <v>0.01242755659159078</v>
+        <v>-0.007411053639904517</v>
       </c>
       <c r="F15">
-        <v>0.02191888371029089</v>
+        <v>0.03316977080389967</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.07552488204937596</v>
+        <v>-0.07547460663447216</v>
       </c>
       <c r="C16">
-        <v>-0.07876820749318555</v>
+        <v>0.004739718082127144</v>
       </c>
       <c r="D16">
-        <v>0.04031387779490612</v>
+        <v>0.1152800599760402</v>
       </c>
       <c r="E16">
-        <v>-0.0368396864091413</v>
+        <v>-0.05653664944075124</v>
       </c>
       <c r="F16">
-        <v>0.08596255832967992</v>
+        <v>0.03431137803515944</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.02061036867580945</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.00396032113167295</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02203210228074068</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.0105215113638071</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02581788027646435</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.04760079844130096</v>
+        <v>-0.06182933317798286</v>
       </c>
       <c r="C20">
-        <v>-0.02266502672767802</v>
+        <v>0.002383818206469772</v>
       </c>
       <c r="D20">
-        <v>-0.03089852524578972</v>
+        <v>0.07024465532836585</v>
       </c>
       <c r="E20">
-        <v>-0.06310974568782475</v>
+        <v>-0.05085023839813217</v>
       </c>
       <c r="F20">
-        <v>0.06683030342342428</v>
+        <v>0.03049717127766458</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.02469441049764364</v>
+        <v>-0.03899988951526159</v>
       </c>
       <c r="C21">
-        <v>-0.01796075363590176</v>
+        <v>0.007789175607262624</v>
       </c>
       <c r="D21">
-        <v>0.01745131782185892</v>
+        <v>0.03324475937756505</v>
       </c>
       <c r="E21">
-        <v>-0.02110318402963384</v>
+        <v>0.01286271991143394</v>
       </c>
       <c r="F21">
-        <v>0.06442660247506811</v>
+        <v>-0.01775792931728023</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05715438273457701</v>
+        <v>-0.04327188172088052</v>
       </c>
       <c r="C22">
-        <v>-0.03063429947446368</v>
+        <v>0.0005948364721725086</v>
       </c>
       <c r="D22">
-        <v>-0.6397764179039078</v>
+        <v>0.002350605938604972</v>
       </c>
       <c r="E22">
-        <v>-0.164497661368744</v>
+        <v>-0.03314225611993063</v>
       </c>
       <c r="F22">
-        <v>-0.05182992260480131</v>
+        <v>-0.01410184972134869</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05802277056537749</v>
+        <v>-0.04335963381155777</v>
       </c>
       <c r="C23">
-        <v>-0.03235812015907108</v>
+        <v>0.0006274960569307688</v>
       </c>
       <c r="D23">
-        <v>-0.642052839871106</v>
+        <v>0.002544517171085296</v>
       </c>
       <c r="E23">
-        <v>-0.1657548370242608</v>
+        <v>-0.03355212033348887</v>
       </c>
       <c r="F23">
-        <v>-0.04686594124375713</v>
+        <v>-0.01357229908611392</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07477767991330551</v>
+        <v>-0.08178502800603758</v>
       </c>
       <c r="C24">
-        <v>-0.07864296102293646</v>
+        <v>0.004937769712925625</v>
       </c>
       <c r="D24">
-        <v>0.03157033685044563</v>
+        <v>0.1148809067418344</v>
       </c>
       <c r="E24">
-        <v>-0.03124599707106663</v>
+        <v>-0.04479133485245092</v>
       </c>
       <c r="F24">
-        <v>0.09461660450923468</v>
+        <v>0.02636436750029069</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07385408413349936</v>
+        <v>-0.08582746502809133</v>
       </c>
       <c r="C25">
-        <v>-0.06039197937627332</v>
+        <v>0.006877556010097206</v>
       </c>
       <c r="D25">
-        <v>0.05798261722995798</v>
+        <v>0.1017595510449731</v>
       </c>
       <c r="E25">
-        <v>-0.0322548824315828</v>
+        <v>-0.02714399227163338</v>
       </c>
       <c r="F25">
-        <v>0.09629898341347333</v>
+        <v>0.03483135793876121</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04351657779682508</v>
+        <v>-0.05649572856220009</v>
       </c>
       <c r="C26">
-        <v>-0.003219355427750129</v>
+        <v>0.01568645098591496</v>
       </c>
       <c r="D26">
-        <v>-0.01364087573502483</v>
+        <v>0.03274001287251996</v>
       </c>
       <c r="E26">
-        <v>-0.0867503003159272</v>
+        <v>-0.02332895299148705</v>
       </c>
       <c r="F26">
-        <v>0.04292345894794914</v>
+        <v>-0.005400785030276489</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1595596150829896</v>
+        <v>-0.1379108037336943</v>
       </c>
       <c r="C28">
-        <v>0.2718405870647781</v>
+        <v>0.01213124348239938</v>
       </c>
       <c r="D28">
-        <v>0.007635139134694867</v>
+        <v>-0.2721167155923949</v>
       </c>
       <c r="E28">
-        <v>-0.02565163429055266</v>
+        <v>0.06647058590637732</v>
       </c>
       <c r="F28">
-        <v>0.03007862981500739</v>
+        <v>0.03745630207709873</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.03575577280693851</v>
+        <v>-0.02742062776021202</v>
       </c>
       <c r="C29">
-        <v>-0.02986653868957237</v>
+        <v>0.009223878377520497</v>
       </c>
       <c r="D29">
-        <v>0.01981048676800131</v>
+        <v>0.03008927237561336</v>
       </c>
       <c r="E29">
-        <v>-0.03887210685722552</v>
+        <v>-0.008650258088776943</v>
       </c>
       <c r="F29">
-        <v>0.05922645658332337</v>
+        <v>-0.009200668197720122</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.09407341646547011</v>
+        <v>-0.06504866123169198</v>
       </c>
       <c r="C30">
-        <v>-0.05657940639142069</v>
+        <v>0.006718003499272103</v>
       </c>
       <c r="D30">
-        <v>0.04056908730157543</v>
+        <v>0.07898241595716478</v>
       </c>
       <c r="E30">
-        <v>-0.3197607801951712</v>
+        <v>-0.02200241572621664</v>
       </c>
       <c r="F30">
-        <v>0.1319457168389943</v>
+        <v>0.1181069371057324</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.03225034229577643</v>
+        <v>-0.04894591153583137</v>
       </c>
       <c r="C31">
-        <v>-0.06345960109422477</v>
+        <v>0.01520467627536384</v>
       </c>
       <c r="D31">
-        <v>0.0002133050740968573</v>
+        <v>0.02892827328631006</v>
       </c>
       <c r="E31">
-        <v>-0.01285454340816206</v>
+        <v>-0.02644872473601215</v>
       </c>
       <c r="F31">
-        <v>0.04348465536399012</v>
+        <v>-0.002499925062894457</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.0546219872719351</v>
+        <v>-0.04924150618807415</v>
       </c>
       <c r="C32">
-        <v>-0.01422202122548079</v>
+        <v>0.0006735206810852258</v>
       </c>
       <c r="D32">
-        <v>0.0554608950368494</v>
+        <v>0.03019100365094897</v>
       </c>
       <c r="E32">
-        <v>0.0450519058899348</v>
+        <v>-0.02657150399171363</v>
       </c>
       <c r="F32">
-        <v>0.06749045884293478</v>
+        <v>0.002152037557813107</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09587034926282088</v>
+        <v>-0.09198879971287179</v>
       </c>
       <c r="C33">
-        <v>-0.07788604416165371</v>
+        <v>0.0101731594283467</v>
       </c>
       <c r="D33">
-        <v>0.03035141627657327</v>
+        <v>0.09112779659353595</v>
       </c>
       <c r="E33">
-        <v>-0.06098847094468089</v>
+        <v>-0.04390742123561756</v>
       </c>
       <c r="F33">
-        <v>0.03451434275859722</v>
+        <v>0.04070604196534924</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06695880015994103</v>
+        <v>-0.06923054596208625</v>
       </c>
       <c r="C34">
-        <v>-0.0582043997670279</v>
+        <v>0.01291065231858131</v>
       </c>
       <c r="D34">
-        <v>0.04219915179684326</v>
+        <v>0.09529713256564301</v>
       </c>
       <c r="E34">
-        <v>-0.0355968369413272</v>
+        <v>-0.028303976754382</v>
       </c>
       <c r="F34">
-        <v>0.09916682410067534</v>
+        <v>0.04925866363218063</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.01657726135809101</v>
+        <v>-0.02451306892733405</v>
       </c>
       <c r="C35">
-        <v>-0.004759527032265933</v>
+        <v>0.002706268683661589</v>
       </c>
       <c r="D35">
-        <v>-0.002045145699937682</v>
+        <v>0.009629349193041412</v>
       </c>
       <c r="E35">
-        <v>-0.01929496765961186</v>
+        <v>-0.01093815368013247</v>
       </c>
       <c r="F35">
-        <v>0.03877687545180445</v>
+        <v>0.01135728529121413</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.02446221569363312</v>
+        <v>-0.02511798196406191</v>
       </c>
       <c r="C36">
-        <v>-0.01668938249201294</v>
+        <v>0.007265410050639469</v>
       </c>
       <c r="D36">
-        <v>-0.01019021298085917</v>
+        <v>0.03751591045953532</v>
       </c>
       <c r="E36">
-        <v>-0.04365914006857524</v>
+        <v>-0.01517864291096453</v>
       </c>
       <c r="F36">
-        <v>0.0658313563710916</v>
+        <v>0.008556286155628564</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.01830552798038979</v>
+        <v>-0.002612467299935049</v>
       </c>
       <c r="C38">
-        <v>-0.04313372733039049</v>
+        <v>0.000447663216685712</v>
       </c>
       <c r="D38">
-        <v>-0.0245055848863737</v>
+        <v>0.00250880299593452</v>
       </c>
       <c r="E38">
-        <v>-0.02891929423048582</v>
+        <v>-0.003314519696792308</v>
       </c>
       <c r="F38">
-        <v>-0.1244205450604588</v>
+        <v>-0.002288368478929858</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1044122833211746</v>
+        <v>-0.1110798602226487</v>
       </c>
       <c r="C39">
-        <v>-0.09430053886444745</v>
+        <v>0.01874601285243826</v>
       </c>
       <c r="D39">
-        <v>0.1395374993461522</v>
+        <v>0.1468346342117902</v>
       </c>
       <c r="E39">
-        <v>-0.1683497554944971</v>
+        <v>-0.05094011669120371</v>
       </c>
       <c r="F39">
-        <v>0.0848538414872695</v>
+        <v>0.03696535609356456</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02597469615957514</v>
+        <v>-0.03770233948642771</v>
       </c>
       <c r="C40">
-        <v>-0.06874814687340323</v>
+        <v>0.007691202978512202</v>
       </c>
       <c r="D40">
-        <v>-0.02538170118283286</v>
+        <v>0.02993987961040011</v>
       </c>
       <c r="E40">
-        <v>0.01840470032214946</v>
+        <v>-0.001970893835927317</v>
       </c>
       <c r="F40">
-        <v>0.06959811099820458</v>
+        <v>-0.01889577397406755</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03776680796312987</v>
+        <v>-0.02676004471475841</v>
       </c>
       <c r="C41">
-        <v>-0.02700162912565421</v>
+        <v>0.006845639070936656</v>
       </c>
       <c r="D41">
-        <v>0.01904431434951964</v>
+        <v>0.01072133638723369</v>
       </c>
       <c r="E41">
-        <v>-0.02297975784225656</v>
+        <v>-0.01130994529911807</v>
       </c>
       <c r="F41">
-        <v>-0.005323716324213286</v>
+        <v>-0.01169730363136103</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0449879870869796</v>
+        <v>-0.04275707177909113</v>
       </c>
       <c r="C43">
-        <v>-0.04530907851085324</v>
+        <v>0.007226307495607103</v>
       </c>
       <c r="D43">
-        <v>-0.007541674203876845</v>
+        <v>0.02078468914984459</v>
       </c>
       <c r="E43">
-        <v>-0.04434326780808909</v>
+        <v>-0.02540097354323929</v>
       </c>
       <c r="F43">
-        <v>-0.002884103525394401</v>
+        <v>-0.01138403582205511</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.09985669637267747</v>
+        <v>-0.07355440686066604</v>
       </c>
       <c r="C44">
-        <v>-0.09881911536221019</v>
+        <v>0.02283489054182155</v>
       </c>
       <c r="D44">
-        <v>-0.07974817089322092</v>
+        <v>0.09792286027696874</v>
       </c>
       <c r="E44">
-        <v>-0.05981849352726345</v>
+        <v>-0.06460226532646039</v>
       </c>
       <c r="F44">
-        <v>0.1156560869603592</v>
+        <v>0.1762327186485818</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.03769807441594971</v>
+        <v>-0.02372104503734379</v>
       </c>
       <c r="C46">
-        <v>-0.03666095994409066</v>
+        <v>0.004281125346078806</v>
       </c>
       <c r="D46">
-        <v>-0.04059766238956959</v>
+        <v>0.0114390465247598</v>
       </c>
       <c r="E46">
-        <v>-0.01908889480861834</v>
+        <v>-0.02085413234973991</v>
       </c>
       <c r="F46">
-        <v>0.05161654401751015</v>
+        <v>-0.0002714970160314807</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.04714723089319972</v>
+        <v>-0.05327607608327278</v>
       </c>
       <c r="C47">
-        <v>-0.04260779268259147</v>
+        <v>0.003558592054466553</v>
       </c>
       <c r="D47">
-        <v>-0.001102988309101302</v>
+        <v>0.01295230480363469</v>
       </c>
       <c r="E47">
-        <v>-0.01038291648683697</v>
+        <v>-0.02336365134006731</v>
       </c>
       <c r="F47">
-        <v>0.01605219972289455</v>
+        <v>-0.04720332687676897</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04564007328363416</v>
+        <v>-0.04836169896762044</v>
       </c>
       <c r="C48">
-        <v>-0.02131711708572864</v>
+        <v>0.003383765377607673</v>
       </c>
       <c r="D48">
-        <v>0.01255842818930546</v>
+        <v>0.04519544300167317</v>
       </c>
       <c r="E48">
-        <v>-0.006879389181589858</v>
+        <v>0.008242917004713654</v>
       </c>
       <c r="F48">
-        <v>0.08899344039393658</v>
+        <v>0.01488241113970015</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.229203983322158</v>
+        <v>-0.2044881128849135</v>
       </c>
       <c r="C49">
-        <v>-0.04319339371469039</v>
+        <v>0.01689852307217447</v>
       </c>
       <c r="D49">
-        <v>0.02234916425107376</v>
+        <v>-0.009408536072732961</v>
       </c>
       <c r="E49">
-        <v>0.1391093234782155</v>
+        <v>-0.04077683333276929</v>
       </c>
       <c r="F49">
-        <v>-0.2993880764769932</v>
+        <v>0.03178390697573107</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04231212421496084</v>
+        <v>-0.04890254849151107</v>
       </c>
       <c r="C50">
-        <v>-0.04606777266959104</v>
+        <v>0.01121289558649592</v>
       </c>
       <c r="D50">
-        <v>0.01713744539470105</v>
+        <v>0.02645626639387324</v>
       </c>
       <c r="E50">
-        <v>-0.05518501116438868</v>
+        <v>-0.02858094724467337</v>
       </c>
       <c r="F50">
-        <v>0.0424534901744313</v>
+        <v>0.007872911799370962</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.02490803657568639</v>
+        <v>-0.00323671781341725</v>
       </c>
       <c r="C51">
-        <v>0.003315427950691169</v>
+        <v>0.000764615332767765</v>
       </c>
       <c r="D51">
-        <v>-0.001826491221735072</v>
+        <v>-0.001957811538401509</v>
       </c>
       <c r="E51">
-        <v>0.03961842416756794</v>
+        <v>-0.0009997693710688791</v>
       </c>
       <c r="F51">
-        <v>-0.0293087050041917</v>
+        <v>0.004220175724648804</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.05484121596804056</v>
+        <v>-0.1427513185937017</v>
       </c>
       <c r="C52">
-        <v>-0.03001170117754217</v>
+        <v>0.01278119812204762</v>
       </c>
       <c r="D52">
-        <v>0.03376946080752907</v>
+        <v>0.04887009950721543</v>
       </c>
       <c r="E52">
-        <v>-0.04820393737279363</v>
+        <v>-0.01785816084597288</v>
       </c>
       <c r="F52">
-        <v>-0.008874222363603489</v>
+        <v>0.03498057454162776</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.154470115141319</v>
+        <v>-0.1734029962460956</v>
       </c>
       <c r="C53">
-        <v>-0.06512320704623367</v>
+        <v>0.01560260978994205</v>
       </c>
       <c r="D53">
-        <v>-0.009589379790370238</v>
+        <v>0.01559610241256575</v>
       </c>
       <c r="E53">
-        <v>-0.0329036865560184</v>
+        <v>-0.03782654403442209</v>
       </c>
       <c r="F53">
-        <v>-0.100780448217039</v>
+        <v>0.06601557212884351</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.05672738406662942</v>
+        <v>-0.0232686928765661</v>
       </c>
       <c r="C54">
-        <v>-0.04686676075844289</v>
+        <v>0.01287725773177241</v>
       </c>
       <c r="D54">
-        <v>0.001694966520882059</v>
+        <v>0.03187709292577918</v>
       </c>
       <c r="E54">
-        <v>-0.04014574992081769</v>
+        <v>-0.01292305831802873</v>
       </c>
       <c r="F54">
-        <v>0.1351324238170308</v>
+        <v>-0.002821213796136901</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.07996560326505547</v>
+        <v>-0.1143723589498466</v>
       </c>
       <c r="C55">
-        <v>-0.0500826338504171</v>
+        <v>0.01446557621898312</v>
       </c>
       <c r="D55">
-        <v>0.03386672099232983</v>
+        <v>0.01407049488783024</v>
       </c>
       <c r="E55">
-        <v>0.008415289224845048</v>
+        <v>-0.03036098784793839</v>
       </c>
       <c r="F55">
-        <v>-0.02327299458957931</v>
+        <v>0.04874839100339312</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1436235441179509</v>
+        <v>-0.1776567142343562</v>
       </c>
       <c r="C56">
-        <v>-0.09933643285992398</v>
+        <v>0.01308064596092493</v>
       </c>
       <c r="D56">
-        <v>0.02253046316817721</v>
+        <v>0.009651330988381637</v>
       </c>
       <c r="E56">
-        <v>-0.01777043374216766</v>
+        <v>-0.04280171523024162</v>
       </c>
       <c r="F56">
-        <v>-0.06120191649040453</v>
+        <v>0.03695205043293155</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.04415706406957613</v>
+        <v>-0.04694658800887551</v>
       </c>
       <c r="C58">
-        <v>-0.03260764684205089</v>
+        <v>0.003128463882960589</v>
       </c>
       <c r="D58">
-        <v>-0.03682457032442624</v>
+        <v>0.06414731765887634</v>
       </c>
       <c r="E58">
-        <v>-0.0345514088040143</v>
+        <v>-0.01728297747933438</v>
       </c>
       <c r="F58">
-        <v>0.03395979930483028</v>
+        <v>-0.04884819960399092</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2227998471908648</v>
+        <v>-0.1693209600500205</v>
       </c>
       <c r="C59">
-        <v>0.2327775214307262</v>
+        <v>0.0139666739121908</v>
       </c>
       <c r="D59">
-        <v>0.0406060327645714</v>
+        <v>-0.2321157153783721</v>
       </c>
       <c r="E59">
-        <v>0.05910787746310812</v>
+        <v>0.04779035509107803</v>
       </c>
       <c r="F59">
-        <v>0.02407692138130986</v>
+        <v>-0.03208159671784058</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2293051184115107</v>
+        <v>-0.2391156242270807</v>
       </c>
       <c r="C60">
-        <v>-0.1479947206110454</v>
+        <v>-0.004353505149505171</v>
       </c>
       <c r="D60">
-        <v>0.07089982365624418</v>
+        <v>0.04972739168334811</v>
       </c>
       <c r="E60">
-        <v>0.07195775027405096</v>
+        <v>-0.01083729896890735</v>
       </c>
       <c r="F60">
-        <v>-0.1309087650159706</v>
+        <v>-0.03898358116021707</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1087378232184127</v>
+        <v>-0.08591779032976021</v>
       </c>
       <c r="C61">
-        <v>-0.08167119076068122</v>
+        <v>0.01461039136303914</v>
       </c>
       <c r="D61">
-        <v>0.08198682714495732</v>
+        <v>0.1087029593572088</v>
       </c>
       <c r="E61">
-        <v>-0.1232797581127656</v>
+        <v>-0.03401793911921106</v>
       </c>
       <c r="F61">
-        <v>0.1197122191669465</v>
+        <v>0.02125684526082924</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.135176690931538</v>
+        <v>-0.1695641732423595</v>
       </c>
       <c r="C62">
-        <v>-0.07688237945440687</v>
+        <v>0.01699120858033176</v>
       </c>
       <c r="D62">
-        <v>-0.0006137119495673569</v>
+        <v>0.01286777057022429</v>
       </c>
       <c r="E62">
-        <v>-0.003327649611309593</v>
+        <v>-0.0394156859484288</v>
       </c>
       <c r="F62">
-        <v>-0.09904423120688985</v>
+        <v>0.01754849329781102</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.05024820780450454</v>
+        <v>-0.0430147037449962</v>
       </c>
       <c r="C63">
-        <v>-0.02411011187272211</v>
+        <v>0.004044106614439609</v>
       </c>
       <c r="D63">
-        <v>0.01011845313240938</v>
+        <v>0.04748029479432724</v>
       </c>
       <c r="E63">
-        <v>-0.05028440371063692</v>
+        <v>-0.01578548501075925</v>
       </c>
       <c r="F63">
-        <v>0.06520421809895151</v>
+        <v>0.01065730649686688</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09420105217045235</v>
+        <v>-0.1122916164447581</v>
       </c>
       <c r="C64">
-        <v>-0.05443047692501995</v>
+        <v>0.01185252779752387</v>
       </c>
       <c r="D64">
-        <v>0.00423485603121378</v>
+        <v>0.03965992523935784</v>
       </c>
       <c r="E64">
-        <v>-0.08979825067638474</v>
+        <v>-0.02032255050309326</v>
       </c>
       <c r="F64">
-        <v>0.0466771858751559</v>
+        <v>0.0184884241046176</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1219505251013317</v>
+        <v>-0.1437573948560891</v>
       </c>
       <c r="C65">
-        <v>-0.04494294459577519</v>
+        <v>0.03096388830035196</v>
       </c>
       <c r="D65">
-        <v>0.02527133349083176</v>
+        <v>-0.04682297347201517</v>
       </c>
       <c r="E65">
-        <v>-0.04966281963821788</v>
+        <v>-0.003140289755661895</v>
       </c>
       <c r="F65">
-        <v>0.007944349082275232</v>
+        <v>0.04231673904711808</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1217227598753348</v>
+        <v>-0.1332753459745805</v>
       </c>
       <c r="C66">
-        <v>-0.1294564543702998</v>
+        <v>0.01634181021958702</v>
       </c>
       <c r="D66">
-        <v>0.1276246975429899</v>
+        <v>0.1345077972879558</v>
       </c>
       <c r="E66">
-        <v>-0.1667731407142858</v>
+        <v>-0.05980883553720624</v>
       </c>
       <c r="F66">
-        <v>0.04590046124777292</v>
+        <v>0.04161490347265993</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.06882701070879677</v>
+        <v>-0.06475349032212942</v>
       </c>
       <c r="C67">
-        <v>-0.04901897868456857</v>
+        <v>0.003965721563752194</v>
       </c>
       <c r="D67">
-        <v>-0.03550576104126155</v>
+        <v>0.05464541672869865</v>
       </c>
       <c r="E67">
-        <v>-0.02420951699123682</v>
+        <v>-0.02064906740035144</v>
       </c>
       <c r="F67">
-        <v>-0.1336203131044818</v>
+        <v>-0.04184608639027295</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1346060595267299</v>
+        <v>-0.1114088680585657</v>
       </c>
       <c r="C68">
-        <v>0.2593699911541988</v>
+        <v>0.02312731574173046</v>
       </c>
       <c r="D68">
-        <v>0.02180248657825136</v>
+        <v>-0.2693878360124502</v>
       </c>
       <c r="E68">
-        <v>-0.04410716314472417</v>
+        <v>0.08530930247480004</v>
       </c>
       <c r="F68">
-        <v>0.03654126018166421</v>
+        <v>0.04361221968591918</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.04998427814890069</v>
+        <v>-0.04042644705019217</v>
       </c>
       <c r="C69">
-        <v>-0.01678202455176612</v>
+        <v>0.001227623881659058</v>
       </c>
       <c r="D69">
-        <v>-0.002211301671560121</v>
+        <v>0.009373323545689035</v>
       </c>
       <c r="E69">
-        <v>-0.03697093580756763</v>
+        <v>-0.02587490436311463</v>
       </c>
       <c r="F69">
-        <v>-0.001901144323843479</v>
+        <v>-0.01553750704477812</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05019993610904739</v>
+        <v>-0.06523029971171204</v>
       </c>
       <c r="C70">
-        <v>-0.04146191058441276</v>
+        <v>-0.02745316138110613</v>
       </c>
       <c r="D70">
-        <v>0.0325833055333736</v>
+        <v>0.02581402215346833</v>
       </c>
       <c r="E70">
-        <v>-0.06372509622813975</v>
+        <v>0.04687620161851078</v>
       </c>
       <c r="F70">
-        <v>0.05652506182406077</v>
+        <v>-0.314958472958592</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1527828095379837</v>
+        <v>-0.1304877280732166</v>
       </c>
       <c r="C71">
-        <v>0.2751898012422118</v>
+        <v>0.02716556116780663</v>
       </c>
       <c r="D71">
-        <v>0.01805996494005526</v>
+        <v>-0.2858831100742423</v>
       </c>
       <c r="E71">
-        <v>-0.0686483046412911</v>
+        <v>0.09265767619064856</v>
       </c>
       <c r="F71">
-        <v>0.0353974778177106</v>
+        <v>0.0459273913489695</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1342412998921992</v>
+        <v>-0.137803005994093</v>
       </c>
       <c r="C72">
-        <v>-0.0182661738828423</v>
+        <v>0.02403039103554721</v>
       </c>
       <c r="D72">
-        <v>0.005296699021001165</v>
+        <v>0.004808207881523249</v>
       </c>
       <c r="E72">
-        <v>-0.05227545479471924</v>
+        <v>-0.04249959288661121</v>
       </c>
       <c r="F72">
-        <v>-0.00833777541299513</v>
+        <v>0.02372568674545736</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2162145175612388</v>
+        <v>-0.2070758249227576</v>
       </c>
       <c r="C73">
-        <v>-0.09402286298326921</v>
+        <v>0.01099754957750696</v>
       </c>
       <c r="D73">
-        <v>0.1168825853712211</v>
+        <v>0.01816719055061398</v>
       </c>
       <c r="E73">
-        <v>0.155067973641637</v>
+        <v>-0.06712316780284232</v>
       </c>
       <c r="F73">
-        <v>-0.4837365621081553</v>
+        <v>0.02756142690097779</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.1003935859072193</v>
+        <v>-0.09412873229614954</v>
       </c>
       <c r="C74">
-        <v>-0.09180773535024263</v>
+        <v>0.01187007674071721</v>
       </c>
       <c r="D74">
-        <v>0.0115424503855383</v>
+        <v>0.02500736790812406</v>
       </c>
       <c r="E74">
-        <v>-0.06806221092446754</v>
+        <v>-0.05100594376628768</v>
       </c>
       <c r="F74">
-        <v>-0.0914142779640529</v>
+        <v>0.0421426435038775</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.09768211883502299</v>
+        <v>-0.1303195125434544</v>
       </c>
       <c r="C75">
-        <v>-0.07113792602155747</v>
+        <v>0.02625991649252282</v>
       </c>
       <c r="D75">
-        <v>0.004833011051605839</v>
+        <v>0.03424649967623489</v>
       </c>
       <c r="E75">
-        <v>0.01796032835120953</v>
+        <v>-0.06105915449615034</v>
       </c>
       <c r="F75">
-        <v>-0.008203752505754126</v>
+        <v>0.011691862602516</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.05384918642326895</v>
+        <v>-0.007329399564626094</v>
       </c>
       <c r="C76">
-        <v>-0.05942628554198798</v>
+        <v>0.001623371867233094</v>
       </c>
       <c r="D76">
-        <v>-0.006172379592920372</v>
+        <v>0.002429383486321729</v>
       </c>
       <c r="E76">
-        <v>0.0274806395977879</v>
+        <v>-0.007174438558938166</v>
       </c>
       <c r="F76">
-        <v>-0.03962070930330045</v>
+        <v>0.004066143148371479</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06689198497522791</v>
+        <v>-0.0802059010533448</v>
       </c>
       <c r="C77">
-        <v>-0.02880468737120228</v>
+        <v>0.01068319941631424</v>
       </c>
       <c r="D77">
-        <v>0.03938563648505099</v>
+        <v>0.1088605900651063</v>
       </c>
       <c r="E77">
-        <v>-0.04066820114932927</v>
+        <v>-0.03350320310186018</v>
       </c>
       <c r="F77">
-        <v>0.1521684897301016</v>
+        <v>0.03023869575125534</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.152040349675108</v>
+        <v>-0.1101710088703436</v>
       </c>
       <c r="C78">
-        <v>-0.1371737985859644</v>
+        <v>0.04317218565621335</v>
       </c>
       <c r="D78">
-        <v>-0.1898521388039058</v>
+        <v>0.1183400891822432</v>
       </c>
       <c r="E78">
-        <v>0.6353892666002331</v>
+        <v>-0.08968992572759962</v>
       </c>
       <c r="F78">
-        <v>0.4373287154702988</v>
+        <v>0.07344666189654961</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1325461144190822</v>
+        <v>-0.1637354810217083</v>
       </c>
       <c r="C79">
-        <v>-0.09108091022343844</v>
+        <v>0.0201397403021549</v>
       </c>
       <c r="D79">
-        <v>-0.006406012668704037</v>
+        <v>0.01994992809978191</v>
       </c>
       <c r="E79">
-        <v>-0.02418808132412608</v>
+        <v>-0.04896435597971342</v>
       </c>
       <c r="F79">
-        <v>-0.04522258044466161</v>
+        <v>0.01051521784591586</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06918595659170443</v>
+        <v>-0.08051576054324826</v>
       </c>
       <c r="C80">
-        <v>-0.04097688110748555</v>
+        <v>-0.000672531497108105</v>
       </c>
       <c r="D80">
-        <v>0.0877950252140159</v>
+        <v>0.05542636244759715</v>
       </c>
       <c r="E80">
-        <v>-0.05464984493084885</v>
+        <v>-0.02989886955734487</v>
       </c>
       <c r="F80">
-        <v>0.0476195770462378</v>
+        <v>-0.01602390856580296</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1291485861501946</v>
+        <v>-0.1237544624382642</v>
       </c>
       <c r="C81">
-        <v>-0.0929186364654588</v>
+        <v>0.03014313923024087</v>
       </c>
       <c r="D81">
-        <v>-0.005595267219930628</v>
+        <v>0.02045359541915812</v>
       </c>
       <c r="E81">
-        <v>-0.03056191377609438</v>
+        <v>-0.06180554161354412</v>
       </c>
       <c r="F81">
-        <v>0.02259003403392578</v>
+        <v>0.0008433102302817136</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1282589711086499</v>
+        <v>-0.1628404727233222</v>
       </c>
       <c r="C82">
-        <v>-0.06542377519749643</v>
+        <v>0.02057180629359962</v>
       </c>
       <c r="D82">
-        <v>0.01469777829373819</v>
+        <v>0.0167473516634021</v>
       </c>
       <c r="E82">
-        <v>-0.06133077612982864</v>
+        <v>-0.03629728530821062</v>
       </c>
       <c r="F82">
-        <v>-0.04778790147639009</v>
+        <v>0.05921389357060769</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.07235134701767502</v>
+        <v>-0.06556648599170893</v>
       </c>
       <c r="C83">
-        <v>-0.077436865523481</v>
+        <v>0.004037386399994155</v>
       </c>
       <c r="D83">
-        <v>0.03599944241755122</v>
+        <v>0.04855741263988884</v>
       </c>
       <c r="E83">
-        <v>-0.1168741323538609</v>
+        <v>-0.002800566298459271</v>
       </c>
       <c r="F83">
-        <v>-0.01665109404909787</v>
+        <v>-0.04004220240937174</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.05752815635494749</v>
+        <v>-0.06097518319848055</v>
       </c>
       <c r="C84">
-        <v>0.06675523528392278</v>
+        <v>0.01138635659857947</v>
       </c>
       <c r="D84">
-        <v>0.03270558294912491</v>
+        <v>0.0599919878103519</v>
       </c>
       <c r="E84">
-        <v>0.1120866165647789</v>
+        <v>0.00429803364167579</v>
       </c>
       <c r="F84">
-        <v>0.1348344720777458</v>
+        <v>0.01449136288655013</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1188062228491278</v>
+        <v>-0.1383914187674661</v>
       </c>
       <c r="C85">
-        <v>-0.06227676342766345</v>
+        <v>0.02544189920028442</v>
       </c>
       <c r="D85">
-        <v>0.005648117938776351</v>
+        <v>0.01612468987954145</v>
       </c>
       <c r="E85">
-        <v>-0.03221376262518693</v>
+        <v>-0.04070068235735633</v>
       </c>
       <c r="F85">
-        <v>-0.06131702863841056</v>
+        <v>0.04470778748514002</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08898993021058074</v>
+        <v>-0.09882651826692314</v>
       </c>
       <c r="C86">
-        <v>-0.03770268631303595</v>
+        <v>-0.006442025281394005</v>
       </c>
       <c r="D86">
-        <v>-0.02912785991815818</v>
+        <v>0.02027561023128888</v>
       </c>
       <c r="E86">
-        <v>0.3278888261731636</v>
+        <v>-0.1332150774960807</v>
       </c>
       <c r="F86">
-        <v>0.03827418777030939</v>
+        <v>-0.8453826755688857</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.118273384770713</v>
+        <v>-0.1003239562988169</v>
       </c>
       <c r="C87">
-        <v>-0.08428051431902306</v>
+        <v>0.02564429233447126</v>
       </c>
       <c r="D87">
-        <v>-0.01417442766341917</v>
+        <v>0.07289392414494586</v>
       </c>
       <c r="E87">
-        <v>-0.01580463555345862</v>
+        <v>0.05296719917397926</v>
       </c>
       <c r="F87">
-        <v>0.05038495413097133</v>
+        <v>0.0863635324365843</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05885627508815517</v>
+        <v>-0.06251677284335799</v>
       </c>
       <c r="C88">
-        <v>-0.05930405197465453</v>
+        <v>0.003308418898849155</v>
       </c>
       <c r="D88">
-        <v>0.0429875055891115</v>
+        <v>0.05325409148326702</v>
       </c>
       <c r="E88">
-        <v>-0.05520848835343534</v>
+        <v>-0.02606679227084603</v>
       </c>
       <c r="F88">
-        <v>-0.002160464442237145</v>
+        <v>0.00793048329534213</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2260646900357019</v>
+        <v>-0.1318530432709893</v>
       </c>
       <c r="C89">
-        <v>0.3694047439481594</v>
+        <v>0.005852546729216476</v>
       </c>
       <c r="D89">
-        <v>-0.05611480949788353</v>
+        <v>-0.2663300933595593</v>
       </c>
       <c r="E89">
-        <v>0.02836820684825576</v>
+        <v>0.09028327318282665</v>
       </c>
       <c r="F89">
-        <v>0.02064816966691691</v>
+        <v>0.02843453221191048</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1615322846492598</v>
+        <v>-0.142347675839176</v>
       </c>
       <c r="C90">
-        <v>0.2591490387422513</v>
+        <v>0.02288627337491402</v>
       </c>
       <c r="D90">
-        <v>0.01231599452778953</v>
+        <v>-0.2732045428145087</v>
       </c>
       <c r="E90">
-        <v>-0.04400403896417945</v>
+        <v>0.1053202377361688</v>
       </c>
       <c r="F90">
-        <v>8.264476830958676e-05</v>
+        <v>0.02926429252367444</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07949142801198615</v>
+        <v>-0.1172632751108009</v>
       </c>
       <c r="C91">
-        <v>-0.07329559717907051</v>
+        <v>0.01624227111738985</v>
       </c>
       <c r="D91">
-        <v>0.008379152152152897</v>
+        <v>-0.003751201309196006</v>
       </c>
       <c r="E91">
-        <v>-0.004454173500181465</v>
+        <v>-0.05942965530126748</v>
       </c>
       <c r="F91">
-        <v>-0.004790595186947262</v>
+        <v>-0.02521784426236987</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1858727722835986</v>
+        <v>-0.1458746959611585</v>
       </c>
       <c r="C92">
-        <v>0.30075250440672</v>
+        <v>0.01457325257321837</v>
       </c>
       <c r="D92">
-        <v>-0.02598828486416467</v>
+        <v>-0.3064702561695604</v>
       </c>
       <c r="E92">
-        <v>-0.02812603018732515</v>
+        <v>0.1010143430199554</v>
       </c>
       <c r="F92">
-        <v>0.09702754658995476</v>
+        <v>0.02534980620241883</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1748708819018908</v>
+        <v>-0.1465247071985881</v>
       </c>
       <c r="C93">
-        <v>0.2984662884583846</v>
+        <v>0.0193227440532673</v>
       </c>
       <c r="D93">
-        <v>0.04077982001057504</v>
+        <v>-0.275511496926614</v>
       </c>
       <c r="E93">
-        <v>-0.02860847571992346</v>
+        <v>0.07126762775016975</v>
       </c>
       <c r="F93">
-        <v>0.021098700944523</v>
+        <v>0.02223660275140404</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1222447643382612</v>
+        <v>-0.1336060984347401</v>
       </c>
       <c r="C94">
-        <v>-0.08212991611003069</v>
+        <v>0.02353046971729875</v>
       </c>
       <c r="D94">
-        <v>-0.01045659148733536</v>
+        <v>0.04749706467341797</v>
       </c>
       <c r="E94">
-        <v>-0.008235416504091238</v>
+        <v>-0.06190500374733138</v>
       </c>
       <c r="F94">
-        <v>-0.03935569859079589</v>
+        <v>0.0295485848857446</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1153296886090486</v>
+        <v>-0.1273117619692588</v>
       </c>
       <c r="C95">
-        <v>-0.07421967036772541</v>
+        <v>0.005852835689046803</v>
       </c>
       <c r="D95">
-        <v>-0.02616749586167649</v>
+        <v>0.0905261409448701</v>
       </c>
       <c r="E95">
-        <v>0.1234244001455846</v>
+        <v>-0.04368628376024367</v>
       </c>
       <c r="F95">
-        <v>0.1158765718431842</v>
+        <v>-0.01231259649825869</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.0001340724490314095</v>
+        <v>-0.09569950537252531</v>
       </c>
       <c r="C96">
-        <v>-0.000224685961259544</v>
+        <v>-0.9893062220209264</v>
       </c>
       <c r="D96">
-        <v>0.0005421872235409189</v>
+        <v>-0.02048669778382869</v>
       </c>
       <c r="E96">
-        <v>0.003675312645526729</v>
+        <v>-0.05935851631371285</v>
       </c>
       <c r="F96">
-        <v>-0.0008865189835638575</v>
+        <v>0.04834600870706236</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1251896257503811</v>
+        <v>-0.1865652692849392</v>
       </c>
       <c r="C97">
-        <v>-0.01962372459990344</v>
+        <v>-0.01206009390131372</v>
       </c>
       <c r="D97">
-        <v>-0.05025505065076454</v>
+        <v>-0.01159180679750122</v>
       </c>
       <c r="E97">
-        <v>-0.1102581405182522</v>
+        <v>-0.01509756837138114</v>
       </c>
       <c r="F97">
-        <v>0.03799400855791418</v>
+        <v>-0.1765507190025625</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2325437390479016</v>
+        <v>-0.2064359083491795</v>
       </c>
       <c r="C98">
-        <v>-0.08522552943124605</v>
+        <v>0.006833367768804693</v>
       </c>
       <c r="D98">
-        <v>-0.09518416848497713</v>
+        <v>0.01586839924009693</v>
       </c>
       <c r="E98">
-        <v>0.1860458267699867</v>
+        <v>0.09007473558464539</v>
       </c>
       <c r="F98">
-        <v>-0.2174743586892789</v>
+        <v>-0.1306093536445642</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.06726362299050574</v>
+        <v>-0.05808067876486431</v>
       </c>
       <c r="C99">
-        <v>-0.05709720110102249</v>
+        <v>-0.003189494802818764</v>
       </c>
       <c r="D99">
-        <v>-0.00875579415857803</v>
+        <v>0.03465537281820438</v>
       </c>
       <c r="E99">
-        <v>0.02692170409454868</v>
+        <v>-0.02675896970385546</v>
       </c>
       <c r="F99">
-        <v>-0.02972813759481541</v>
+        <v>0.004786099693301052</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0.003212030024119046</v>
+        <v>-0.124388501899102</v>
       </c>
       <c r="C100">
-        <v>0.00610242649635728</v>
+        <v>-0.04840485783677594</v>
       </c>
       <c r="D100">
-        <v>0.003276833587998291</v>
+        <v>0.3248798727095596</v>
       </c>
       <c r="E100">
-        <v>-0.01394660692234131</v>
+        <v>0.904443831525881</v>
       </c>
       <c r="F100">
-        <v>0.005523646117700523</v>
+        <v>-0.05768828897304802</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.03514566429917639</v>
+        <v>-0.02734557436627496</v>
       </c>
       <c r="C101">
-        <v>-0.02999489200370426</v>
+        <v>0.009236170707181704</v>
       </c>
       <c r="D101">
-        <v>0.02045724255714366</v>
+        <v>0.02985549963338793</v>
       </c>
       <c r="E101">
-        <v>-0.03698816371864191</v>
+        <v>-0.008580810647736539</v>
       </c>
       <c r="F101">
-        <v>0.05782034878287041</v>
+        <v>-0.01137927838792759</v>
       </c>
     </row>
     <row r="102" spans="1:6">
